--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV084-001 - Setup Mapping Jurnal Investasi Investasi - General Ubah Data.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKINV084-001 - Setup Mapping Jurnal Investasi Investasi - General Ubah Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294AD970-3B64-45CE-B6FC-BD4F0673DBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E33EC46-3A11-49C4-BB5D-B80CF4864515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,26 +124,26 @@
     <t>Edit dapat dilakukan dengan baik</t>
   </si>
   <si>
+    <t>PU02 : Deposito Berjangka</t>
+  </si>
+  <si>
+    <t>K06 : Test</t>
+  </si>
+  <si>
+    <t>INV.SET.017 - EDIT</t>
+  </si>
+  <si>
+    <t>PRI02 : Obligasi</t>
+  </si>
+  <si>
     <t>Username : 31246;
 Password : bni1234;
 Role : 20/21 - Analis Investasi/Asisten Investasi;
-No. Urut : 1369;
+No. Urut : 2962;
 Porto ID : PU02 - Deposito Berjangka;
 Kegiatan : K06 - Test;
 Produk : PRI02 - Reksadana Pendapatan Tetap;
 Keterangan : INV.SET.017 - EDIT</t>
-  </si>
-  <si>
-    <t>PU02 : Deposito Berjangka</t>
-  </si>
-  <si>
-    <t>K06 : Test</t>
-  </si>
-  <si>
-    <t>INV.SET.017 - EDIT</t>
-  </si>
-  <si>
-    <t>PRI02 : Obligasi</t>
   </si>
 </sst>
 </file>
@@ -535,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,7 +663,7 @@
         <v>33</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G2" s="4">
         <v>31246</v>
@@ -684,25 +684,25 @@
         <v>17</v>
       </c>
       <c r="M2" s="4">
-        <v>1369</v>
+        <v>2962</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="Q2" s="7"/>
       <c r="R2" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S2" s="7"/>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
       <c r="W2" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
